--- a/DMS/Templates/Template_AppUser_Store.xlsx
+++ b/DMS/Templates/Template_AppUser_Store.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D9FA8-52B9-4FE6-810A-989FC3339CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD264C-52C5-4093-9655-96513A9E6884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>{{AppUsers.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{AppUsers.AppUserStoreMappings.CodeDraft}}</t>
   </si>
   <si>
     <t>{{AppUsers.AppUserStoreMappings.Code}}</t>
@@ -439,7 +436,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +449,7 @@
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -486,10 +483,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/DMS/Templates/Template_AppUser_Store.xlsx
+++ b/DMS/Templates/Template_AppUser_Store.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD264C-52C5-4093-9655-96513A9E6884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="AppUserStore" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -34,15 +33,9 @@
     <t>Địa chỉ đại lý</t>
   </si>
   <si>
-    <t>Mã đại lý *</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên nhân viên </t>
   </si>
   <si>
-    <t>Mã nhân viên *</t>
-  </si>
-  <si>
     <t>Vui lòng insert các dòng phía trên</t>
   </si>
   <si>
@@ -55,16 +48,25 @@
     <t>{{AppUsers.DisplayName}}</t>
   </si>
   <si>
-    <t>{{AppUsers.AppUserStoreMappings.Code}}</t>
-  </si>
-  <si>
-    <t>{{AppUsers.AppUserStoreMappings.Address}}</t>
+    <t>{{AppUsers.AppUserStoreMappings.Store.Code}}</t>
+  </si>
+  <si>
+    <t>{{AppUsers.AppUserStoreMappings.Store.Name}}</t>
+  </si>
+  <si>
+    <t>{{AppUsers.AppUserStoreMappings.Store.Address}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -471,22 +473,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>

--- a/DMS/Templates/Template_AppUser_Store.xlsx
+++ b/DMS/Templates/Template_AppUser_Store.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2D071-AD23-429D-A859-CDEB40AA829A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AppUserStore" sheetId="1" r:id="rId1"/>
+    <sheet name="Phạm vi đi tuyến" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -66,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -434,14 +435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
@@ -451,7 +452,7 @@
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -471,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -491,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -503,7 +504,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
